--- a/data/DTP_Database.xlsx
+++ b/data/DTP_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAXY ACADEMY\Studi Kasus KOMDIGI DIGITAL TALENT POOL (DTP)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wahyu\Documents\GitHub\DIGITAL-TALENT-POOL-DTP-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D19CC2F-809F-42BD-8D97-441499D02F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF9299-BA68-4906-921F-77FD5A24BF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talenta" sheetId="7" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Riwayat_Pendidikan" sheetId="8" r:id="rId4"/>
     <sheet name="PON_TIK_Master" sheetId="11" r:id="rId5"/>
     <sheet name="Lowongan_Industri" sheetId="12" r:id="rId6"/>
+    <sheet name="Hasil_Pemetaan_Asesmen" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="518">
   <si>
     <t>Software Engineer</t>
   </si>
@@ -1558,6 +1559,27 @@
   </si>
   <si>
     <t>Machine Learning, Python, Scikit-learn</t>
+  </si>
+  <si>
+    <t>HasilID</t>
+  </si>
+  <si>
+    <t>OkupasiID_Mapped</t>
+  </si>
+  <si>
+    <t>Skor_Kecocokan_Awal</t>
+  </si>
+  <si>
+    <t>Skor_Asesmen</t>
+  </si>
+  <si>
+    <t>Level_Kompetensi</t>
+  </si>
+  <si>
+    <t>Gap_Keterampilan</t>
+  </si>
+  <si>
+    <t>Tanggal_Update</t>
   </si>
 </sst>
 </file>
@@ -1785,11 +1807,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="68">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1832,46 +1881,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1896,12 +1905,279 @@
         <left style="medium">
           <color rgb="FFCCCCCC"/>
         </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
         <right style="medium">
           <color rgb="FFCCCCCC"/>
         </right>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2140,13 +2416,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFCCCCCC"/>
         </left>
@@ -2179,6 +2448,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2202,255 +2478,12 @@
         <left style="medium">
           <color rgb="FFCCCCCC"/>
         </left>
-        <right/>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
         <right style="medium">
           <color rgb="FFCCCCCC"/>
         </right>
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2680,6 +2713,55 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2708,36 +2790,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2752,91 +2804,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7E089DA-4B4D-4AE3-8605-F670BF97FFED}" name="Table1" displayName="Table1" ref="B2:H22" totalsRowShown="0" headerRowDxfId="54" dataDxfId="46" headerRowBorderDxfId="56" tableBorderDxfId="57" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7E089DA-4B4D-4AE3-8605-F670BF97FFED}" name="Table1" displayName="Table1" ref="B2:H22" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="B2:H22" xr:uid="{F7E089DA-4B4D-4AE3-8605-F670BF97FFED}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{196FC69B-D717-4239-B26A-78C1760DBA97}" name="TalentID" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{44F4086F-7DF7-413B-B4C2-8110AA1C4973}" name="Nama" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{B1B28E91-8BF7-46A9-8369-D51581F65836}" name="Email" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{B0A0E57C-FF25-4D9D-B68C-4564BD2E78FB}" name="Lokasi" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{8ACD48FA-C2AE-4B99-B773-DA0D5B7B4374}" name="Profil_Singkat" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{3125AD86-089D-4490-BD74-67D120BFCB56}" name="LinkedIn_URL" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{46F449E8-F63F-48F0-B256-45B3A8AB9707}" name="Raw_CV_Text" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{196FC69B-D717-4239-B26A-78C1760DBA97}" name="TalentID" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{44F4086F-7DF7-413B-B4C2-8110AA1C4973}" name="Nama" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{B1B28E91-8BF7-46A9-8369-D51581F65836}" name="Email" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{B0A0E57C-FF25-4D9D-B68C-4564BD2E78FB}" name="Lokasi" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{8ACD48FA-C2AE-4B99-B773-DA0D5B7B4374}" name="Profil_Singkat" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{3125AD86-089D-4490-BD74-67D120BFCB56}" name="LinkedIn_URL" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{46F449E8-F63F-48F0-B256-45B3A8AB9707}" name="Raw_CV_Text" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC535A89-E8F7-4CE1-9A46-5818ABD9D5A2}" name="Table3" displayName="Table3" ref="B2:H22" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC535A89-E8F7-4CE1-9A46-5818ABD9D5A2}" name="Table3" displayName="Table3" ref="B2:H22" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="B2:H22" xr:uid="{DC535A89-E8F7-4CE1-9A46-5818ABD9D5A2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E236E438-BD08-4AA7-8CE8-F400D9C04493}" name="PengalamanID" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{AEF63C49-7B82-4FCF-AA7C-E2A849F978B6}" name="TalentID" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{7777F4E0-E861-45EB-A17D-AEEDE954E527}" name="Perusahaan" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{F3FCA485-FCFE-40AC-B4A6-341280BCEC72}" name="Posisi" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{489DD4E7-395B-45AB-8B84-05FE73D427BE}" name="Deskripsi" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{24010E08-4EC4-40E9-A860-5B8907A04944}" name="Tanggal_Mulai" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{62D95B9D-46F4-4D9D-B474-8D70BE60C46B}" name="Tanggal_Selesai" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{E236E438-BD08-4AA7-8CE8-F400D9C04493}" name="PengalamanID" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{AEF63C49-7B82-4FCF-AA7C-E2A849F978B6}" name="TalentID" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{7777F4E0-E861-45EB-A17D-AEEDE954E527}" name="Perusahaan" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{F3FCA485-FCFE-40AC-B4A6-341280BCEC72}" name="Posisi" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{489DD4E7-395B-45AB-8B84-05FE73D427BE}" name="Deskripsi" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{24010E08-4EC4-40E9-A860-5B8907A04944}" name="Tanggal_Mulai" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{62D95B9D-46F4-4D9D-B474-8D70BE60C46B}" name="Tanggal_Selesai" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397416B2-F72F-408B-A46D-5E8D24339B7B}" name="Table4" displayName="Table4" ref="B2:G27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397416B2-F72F-408B-A46D-5E8D24339B7B}" name="Table4" displayName="Table4" ref="B2:G27" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B2:G27" xr:uid="{397416B2-F72F-408B-A46D-5E8D24339B7B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1BDA6490-D153-4B0A-9D4F-CD60A880EFC6}" name="SkillID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8F1DE677-698F-4FB7-9A49-5D8D3A124E07}" name="TalentID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{24D6D9FC-B9CD-4A70-9D15-BC1AB99AE3A3}" name="Nama_Skill_Sertifikasi" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{BC8E6516-3DCE-471B-8BA7-3A5BB25E3804}" name="Tipe" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{86ADBBCC-DA62-4C8F-A3AE-002AE1B659B2}" name="Lembaga_Penerbit" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{2511422D-4B47-40C4-ADBB-8307DC88188A}" name="Level" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{1BDA6490-D153-4B0A-9D4F-CD60A880EFC6}" name="SkillID" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8F1DE677-698F-4FB7-9A49-5D8D3A124E07}" name="TalentID" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{24D6D9FC-B9CD-4A70-9D15-BC1AB99AE3A3}" name="Nama_Skill_Sertifikasi" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{BC8E6516-3DCE-471B-8BA7-3A5BB25E3804}" name="Tipe" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{86ADBBCC-DA62-4C8F-A3AE-002AE1B659B2}" name="Lembaga_Penerbit" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{2511422D-4B47-40C4-ADBB-8307DC88188A}" name="Level" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{793E6DC8-318E-4E89-9C5E-C8E67D750FFD}" name="Table2" displayName="Table2" ref="B2:G23" totalsRowShown="0" headerRowDxfId="42" dataDxfId="35" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{793E6DC8-318E-4E89-9C5E-C8E67D750FFD}" name="Table2" displayName="Table2" ref="B2:G23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="B2:G23" xr:uid="{793E6DC8-318E-4E89-9C5E-C8E67D750FFD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B29DCE11-0731-49A4-B2FB-9FABB3407DFA}" name="PendidikanID" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{21822751-1458-49D8-97A2-87E7066B4AFD}" name="TalentID" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{C1F165F7-0B0F-4F49-BF4A-FC31CFC88676}" name="Institusi" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{43DC638B-3898-4666-A105-3E3D8D3378FF}" name="Jenjang" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{EFE13802-EA36-437E-924B-0B312D00F338}" name="Jurusan" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{F021F320-880A-48C9-98E6-CEAF78E28285}" name="Tahun_Lulus" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{B29DCE11-0731-49A4-B2FB-9FABB3407DFA}" name="PendidikanID" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{21822751-1458-49D8-97A2-87E7066B4AFD}" name="TalentID" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{C1F165F7-0B0F-4F49-BF4A-FC31CFC88676}" name="Institusi" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{43DC638B-3898-4666-A105-3E3D8D3378FF}" name="Jenjang" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{EFE13802-EA36-437E-924B-0B312D00F338}" name="Jurusan" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{F021F320-880A-48C9-98E6-CEAF78E28285}" name="Tahun_Lulus" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{51F905B5-961D-4557-80F0-44A3EE7DDA3C}" name="Table5" displayName="Table5" ref="B2:F22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{51F905B5-961D-4557-80F0-44A3EE7DDA3C}" name="Table5" displayName="Table5" ref="B2:F22" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B2:F22" xr:uid="{51F905B5-961D-4557-80F0-44A3EE7DDA3C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F2A3D573-0FAD-49D3-8C36-B520E170A943}" name="OkupasiID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1A2E9104-638D-4632-AC07-D1B2640E8452}" name="Area_Fungsi" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B9363DBC-FF46-43B4-B5BE-8B76B243BCBF}" name="Okupasi" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B84AEB73-1A8F-4AFD-AE71-8740D197A525}" name="Unit_Kompetensi" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{03AF9CA0-5E01-4A0C-8C53-F1ABA8565230}" name="Kuk_Keywords" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{F2A3D573-0FAD-49D3-8C36-B520E170A943}" name="OkupasiID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{1A2E9104-638D-4632-AC07-D1B2640E8452}" name="Area_Fungsi" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{B9363DBC-FF46-43B4-B5BE-8B76B243BCBF}" name="Okupasi" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{B84AEB73-1A8F-4AFD-AE71-8740D197A525}" name="Unit_Kompetensi" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{03AF9CA0-5E01-4A0C-8C53-F1ABA8565230}" name="Kuk_Keywords" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18E349B2-F554-4228-8D2C-501D5AC836ED}" name="Table6" displayName="Table6" ref="B2:G22" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18E349B2-F554-4228-8D2C-501D5AC836ED}" name="Table6" displayName="Table6" ref="B2:G22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B2:G22" xr:uid="{18E349B2-F554-4228-8D2C-501D5AC836ED}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{43503457-0B01-4240-81B9-57FA4F90E88B}" name="LowonganID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BD49177C-65B7-4EBD-A4A4-B2C030592829}" name="Perusahaan" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{81E71E5B-3C5B-44B6-94EF-52024BC9E8CB}" name="Posisi" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ECB59412-195A-49AF-AE68-DA446162C20B}" name="Deskripsi_Pekerjaan" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5DB5E772-8B54-46FB-8467-52469BE9B665}" name="Keterampilan_Dibutuhkan" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A7BBCD32-952C-4C1D-AC36-574F65E2A229}" name="Lokasi" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{43503457-0B01-4240-81B9-57FA4F90E88B}" name="LowonganID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{BD49177C-65B7-4EBD-A4A4-B2C030592829}" name="Perusahaan" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{81E71E5B-3C5B-44B6-94EF-52024BC9E8CB}" name="Posisi" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{ECB59412-195A-49AF-AE68-DA446162C20B}" name="Deskripsi_Pekerjaan" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5DB5E772-8B54-46FB-8467-52469BE9B665}" name="Keterampilan_Dibutuhkan" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A7BBCD32-952C-4C1D-AC36-574F65E2A229}" name="Lokasi" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4D726122-7AF5-48A9-BBC9-7AE69A533B82}" name="Table7" displayName="Table7" ref="B2:I3" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B2:I3" xr:uid="{4D726122-7AF5-48A9-BBC9-7AE69A533B82}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F5AAAA6C-D617-4893-8915-68DCA1DA51D7}" name="HasilID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{58CF5851-E3D1-484F-96F2-8F482414C146}" name="TalentID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{912214F1-E689-498A-B71C-0B5718A7D430}" name="OkupasiID_Mapped" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{22BA7DE9-29C1-4A3D-BEB2-D07F77C02063}" name="Skor_Kecocokan_Awal" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C0B25F22-9A96-4507-8FF9-139615AB3D6C}" name="Skor_Asesmen" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6D92BC7F-84A3-441C-BB2B-5A2A5BB65F4A}" name="Level_Kompetensi" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{455A91C7-DDD7-4A53-BB54-A9BF4C8BE450}" name="Gap_Keterampilan" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{2CF6F2C2-2B42-4BA5-BB37-7AF47968E4EC}" name="Tanggal_Update" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3374,7 +3443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
@@ -3420,7 +3489,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
@@ -3443,7 +3512,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
@@ -3466,7 +3535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>113</v>
       </c>
@@ -3512,7 +3581,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>125</v>
       </c>
@@ -3558,7 +3627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>137</v>
       </c>
@@ -3604,7 +3673,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>150</v>
       </c>
@@ -3862,7 +3931,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>245</v>
       </c>
@@ -3885,7 +3954,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>249</v>
       </c>
@@ -3908,7 +3977,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>251</v>
       </c>
@@ -3931,7 +4000,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>254</v>
       </c>
@@ -3954,7 +4023,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>257</v>
       </c>
@@ -3977,7 +4046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
         <v>261</v>
       </c>
@@ -4000,7 +4069,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>265</v>
       </c>
@@ -4023,7 +4092,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>269</v>
       </c>
@@ -4046,7 +4115,7 @@
         <v>44866</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
         <v>273</v>
       </c>
@@ -4069,7 +4138,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>277</v>
       </c>
@@ -4092,7 +4161,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>281</v>
       </c>
@@ -4115,7 +4184,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>285</v>
       </c>
@@ -5259,7 +5328,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>365</v>
       </c>
@@ -5276,7 +5345,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>369</v>
       </c>
@@ -5293,7 +5362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>373</v>
       </c>
@@ -5310,7 +5379,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>377</v>
       </c>
@@ -5327,7 +5396,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>380</v>
       </c>
@@ -5344,7 +5413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>384</v>
       </c>
@@ -5361,7 +5430,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>388</v>
       </c>
@@ -5378,7 +5447,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>393</v>
       </c>
@@ -5395,7 +5464,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>397</v>
       </c>
@@ -5412,7 +5481,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>400</v>
       </c>
@@ -5429,7 +5498,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>405</v>
       </c>
@@ -5446,7 +5515,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>409</v>
       </c>
@@ -5463,7 +5532,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>414</v>
       </c>
@@ -5480,7 +5549,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>418</v>
       </c>
@@ -5497,7 +5566,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>421</v>
       </c>
@@ -5514,7 +5583,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>425</v>
       </c>
@@ -5543,7 +5612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD25EF11-3148-4496-8740-7EAF3A962CF8}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5677,7 +5746,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>453</v>
       </c>
@@ -5697,7 +5766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>458</v>
       </c>
@@ -5717,7 +5786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>462</v>
       </c>
@@ -5757,7 +5826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>469</v>
       </c>
@@ -5797,7 +5866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>477</v>
       </c>
@@ -5817,7 +5886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>480</v>
       </c>
@@ -5877,7 +5946,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>490</v>
       </c>
@@ -5917,7 +5986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>498</v>
       </c>
@@ -5937,7 +6006,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>504</v>
       </c>
@@ -5957,7 +6026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>508</v>
       </c>
@@ -5983,4 +6052,69 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640D8FA1-925A-416C-9151-D32D44E4059E}">
+  <dimension ref="B2:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>